--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\SOEN691\Project\big-data-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73937A-5C02-40D3-8ED7-D080CEED0AB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632A7ACA-34DA-4D7B-A620-5A1FE04ED5F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42645" yWindow="4485" windowWidth="17280" windowHeight="12450" activeTab="2" xr2:uid="{A57B67EB-C635-4C0B-A2CB-7DE091DDF637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" activeTab="2" xr2:uid="{A57B67EB-C635-4C0B-A2CB-7DE091DDF637}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Minimum squared sum of consecutive pairwise differences for class 1 (train_data.csv)</t>
   </si>
@@ -89,18 +89,6 @@
     <t>tn (test)</t>
   </si>
   <si>
-    <t>recall (test)</t>
-  </si>
-  <si>
-    <t>precision (test)</t>
-  </si>
-  <si>
-    <t>f1score (test)</t>
-  </si>
-  <si>
-    <t>accuracy (test)</t>
-  </si>
-  <si>
     <t>tp (train)</t>
   </si>
   <si>
@@ -113,16 +101,16 @@
     <t>tn (train)</t>
   </si>
   <si>
-    <t>recall (train)</t>
+    <t>Precision</t>
   </si>
   <si>
-    <t>precision (train)</t>
+    <t>Recall</t>
   </si>
   <si>
-    <t>f1score (train)</t>
+    <t>F1 score</t>
   </si>
   <si>
-    <t>accuracy (train)</t>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -228,11 +216,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -260,11 +248,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -291,7 +279,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>accuracy (train)</c:v>
+                  <c:v>Accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -299,7 +287,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -307,25 +295,23 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Training!$A$2:$A$15</c:f>
+              <c:f>Training!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>185.158979342458</c:v>
                 </c:pt>
@@ -342,30 +328,48 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>525</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
@@ -373,10 +377,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Training!$I$2:$I$15</c:f>
+              <c:f>Training!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.55800000000000005</c:v>
                 </c:pt>
@@ -393,30 +397,48 @@
                   <c:v>0.60042857142857142</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.67542857142857138</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.7401428571428571</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.7887142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.82957142857142863</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>0.86442857142857144</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.88800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>0.90928571428571425</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.92400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>0.93385714285714283</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.93957142857142861</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>0.94457142857142862</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.94614285714285717</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.94628571428571429</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>0.9464285714285714</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.94828571428571429</c:v>
                 </c:pt>
               </c:numCache>
@@ -454,7 +476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1score (train)</c:v>
+                  <c:v>F1 score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -462,7 +484,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -470,25 +492,23 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Training!$A$2:$A$15</c:f>
+              <c:f>Training!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>185.158979342458</c:v>
                 </c:pt>
@@ -505,30 +525,48 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>525</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
@@ -536,10 +574,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Training!$H$2:$H$15</c:f>
+              <c:f>Training!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.47363048656005446</c:v>
                 </c:pt>
@@ -556,30 +594,48 @@
                   <c:v>0.49865567305968816</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.55045508508112384</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.60379002395992154</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.65109695682944091</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.69805112629714006</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>0.74358281545528238</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.77739920499716064</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>0.81050432706654729</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.83312421580928486</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>0.84962650211107504</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.8586702305379218</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>0.86639118457300279</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.86711314769122316</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.86619217081850541</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>0.86417964505613909</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.86552748885586928</c:v>
                 </c:pt>
               </c:numCache>
@@ -601,7 +657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall (train)</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -609,7 +665,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -617,25 +673,23 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Training!$A$2:$A$15</c:f>
+              <c:f>Training!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>185.158979342458</c:v>
                 </c:pt>
@@ -652,30 +706,48 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>525</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
@@ -683,10 +755,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Training!$F$2:$F$15</c:f>
+              <c:f>Training!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -703,30 +775,48 @@
                   <c:v>0.99928160919540232</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.99928160919540232</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.99568965517241381</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.99137931034482762</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.99066091954022983</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>0.9885057471264368</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.98347701149425293</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>0.97557471264367812</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.95402298850574707</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>0.93965517241379315</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.92313218390804597</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>0.90373563218390807</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.88362068965517238</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.87428160919540232</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>0.85704022988505746</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.83692528735632188</c:v>
                 </c:pt>
               </c:numCache>
@@ -748,7 +838,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>precision (train)</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,7 +846,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -764,25 +856,25 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Training!$A$2:$A$15</c:f>
+              <c:f>Training!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>185.158979342458</c:v>
                 </c:pt>
@@ -799,30 +891,48 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>525</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,10 +940,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Training!$G$2:$G$15</c:f>
+              <c:f>Training!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.31029870708872048</c:v>
                 </c:pt>
@@ -850,30 +960,48 @@
                   <c:v>0.33221877239073322</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.37984707809939922</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.43326039387308535</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.48472075869336145</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.53888237592809696</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>0.5959289735816371</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.64272300469483568</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>0.69321082184788152</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.73942093541202669</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>0.77534084173088325</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.80262336039975013</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>0.83201058201058198</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.85121107266435991</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.85825105782792666</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>0.87143900657414175</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.89615384615384619</c:v>
                 </c:pt>
               </c:numCache>
@@ -906,20 +1034,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -927,7 +1041,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -940,9 +1054,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>threshold</a:t>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Θ</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -959,7 +1074,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -981,11 +1096,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1028,14 +1143,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1047,7 +1161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1061,7 +1175,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>accuracy</a:t>
+                  <a:t>Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1079,7 +1193,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1144,7 +1258,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1158,7 +1272,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>f1score</a:t>
+                  <a:t>F1 score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1176,1030 +1290,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1508589984"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1508589984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1512339712"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Test Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Test!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>accuracy (test)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Test!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>185.158979342458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Test!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.55866666666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56155555555555559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56377777777777782</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56688888888888889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59888888888888892</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8315555555555556</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89288888888888884</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92822222222222217</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94311111111111112</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94466666666666665</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94533333333333336</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.94444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94688888888888889</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F30-42A3-BA40-E56D9DE03267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1143430320"/>
-        <c:axId val="1151085296"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Test!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f1score (test)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Test!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>185.158979342458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Test!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4770932069510268</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47873183619550863</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48178675884073391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5009676527508985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59933554817275758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70367474589523071</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78747795414462096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8437348814707305</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86790505675954599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.86445291235710398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.86453744493392071</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.86002239641657341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.86272257323377377</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F30-42A3-BA40-E56D9DE03267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Test!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>recall (test)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Test!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>185.158979342458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Test!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.99779735682819382</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99779735682819382</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99779735682819382</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99779735682819382</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99779735682819382</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99339207048458145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99118942731277537</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98348017621145378</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96035242290748901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92621145374449343</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87444933920704848</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.86453744493392071</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8458149779735683</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8270925110132159</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F30-42A3-BA40-E56D9DE03267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Test!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>precision (test)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Test!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>185.158979342458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Test!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.31349480968858129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31491136600625652</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31600976630624344</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31756046267087279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33444075304540422</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42911512844909611</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.54545454545454541</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65661764705882353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75237273511647973</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.81650485436893205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.85468245425188372</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.86453744493392071</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87471526195899774</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90156062424969985</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1F30-42A3-BA40-E56D9DE03267}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1508589984"/>
-        <c:axId val="1512339712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1143430320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>threshold</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1151085296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1151085296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2246,103 +1337,6 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143430320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1512339712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>f1score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1508589984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -2355,7 +1349,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1512339712"/>
@@ -2443,18 +1437,1262 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Test!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>185.158979342458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Test!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.55866666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56155555555555559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56377777777777782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56688888888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59888888888888892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7824444444444445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8315555555555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86577777777777776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89288888888888884</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91488888888888886</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92822222222222217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93733333333333335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94311111111111112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94511111111111112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94533333333333336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94688888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F30-42A3-BA40-E56D9DE03267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1143430320"/>
+        <c:axId val="1151085296"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Test!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>185.158979342458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Test!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.4770932069510268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47873183619550863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48178675884073391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5009676527508985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55155582672361203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59933554817275758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64796835670622088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70367474589523071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74791318864774625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78747795414462096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82210868555503946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8437348814707305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85885885885885893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86790505675954599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86854709952102183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86445291235710398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86453744493392071</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86002239641657341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86272257323377377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F30-42A3-BA40-E56D9DE03267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Test!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>185.158979342458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Test!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.99779735682819382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99779735682819382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99779735682819382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99779735682819382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99779735682819382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99559471365638763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99339207048458145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99229074889867841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99118942731277537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.986784140969163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98348017621145378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97466960352422904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96035242290748901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94493392070484583</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92621145374449343</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89867841409691629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87444933920704848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86453744493392071</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8458149779735683</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8270925110132159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F30-42A3-BA40-E56D9DE03267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Test!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>185.158979342458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Test!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.31349480968858129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31491136600625652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31600976630624344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31756046267087279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33444075304540422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38143459915611816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42911512844909611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48104644954618259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60215053763440862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65661764705882353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71084337349397586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75237273511647973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78715596330275228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81650485436893205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84037075180226573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85468245425188372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86453744493392071</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87471526195899774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90156062424969985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1F30-42A3-BA40-E56D9DE03267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1508589984"/>
+        <c:axId val="1512339712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1143430320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Θ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151085296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1151085296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143430320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1512339712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1 score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508589984"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1508589984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1512339712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2489,12 +2727,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2529,7 +2764,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2540,7 +2775,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2553,11 +2788,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2570,7 +2805,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2586,7 +2821,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2630,32 +2865,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2667,33 +2940,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2715,15 +2984,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2742,13 +3009,14 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2757,10 +3025,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2776,14 +3044,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2795,31 +3063,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2828,17 +3089,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2847,14 +3107,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2866,17 +3126,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2897,7 +3156,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2905,7 +3164,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2925,10 +3184,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2945,11 +3204,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2958,14 +3217,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2995,8 +3253,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3019,20 +3277,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3043,7 +3295,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3056,11 +3308,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3073,7 +3325,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3089,7 +3341,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3133,32 +3385,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3170,33 +3460,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3218,15 +3504,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3245,13 +3529,14 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3260,10 +3545,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3279,14 +3564,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3298,31 +3583,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3331,17 +3609,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3350,14 +3627,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3369,17 +3646,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3400,7 +3676,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3408,7 +3684,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3428,10 +3704,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3448,11 +3724,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3461,14 +3737,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3498,8 +3773,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3522,14 +3797,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3540,13 +3809,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3581,13 +3850,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3986,11 +4255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE17D04-2234-4F42-9C0B-D8722B520205}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,28 +4275,28 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -4051,27 +4319,27 @@
         <v>3094</v>
       </c>
       <c r="D2">
-        <f>L2-B2</f>
+        <f t="shared" ref="D2:D21" si="0">L2-B2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>M2-C2</f>
+        <f t="shared" ref="E2:E21" si="1">M2-C2</f>
         <v>2514</v>
       </c>
       <c r="F2">
-        <f>B2/(B2+D2)</f>
+        <f t="shared" ref="F2:F21" si="2">B2/(B2+D2)</f>
         <v>1</v>
       </c>
       <c r="G2">
-        <f>B2/(B2+C2)</f>
+        <f t="shared" ref="G2:G21" si="3">B2/(B2+C2)</f>
         <v>0.31029870708872048</v>
       </c>
       <c r="H2">
-        <f>(2*F2*G2)/(F2+G2)</f>
+        <f t="shared" ref="H2:H21" si="4">(2*F2*G2)/(F2+G2)</f>
         <v>0.47363048656005446</v>
       </c>
       <c r="I2">
-        <f>(B2+E2)/K2</f>
+        <f t="shared" ref="I2:I21" si="5">(B2+E2)/K2</f>
         <v>0.55800000000000005</v>
       </c>
       <c r="K2">
@@ -4081,7 +4349,7 @@
         <v>1392</v>
       </c>
       <c r="M2">
-        <f>K2-L2</f>
+        <f t="shared" ref="M2:M21" si="6">K2-L2</f>
         <v>5608</v>
       </c>
     </row>
@@ -4096,27 +4364,27 @@
         <v>3080</v>
       </c>
       <c r="D3">
-        <f>L3-B3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3">
-        <f>M3-C3</f>
+        <f t="shared" si="1"/>
         <v>2528</v>
       </c>
       <c r="F3">
-        <f>B3/(B3+D3)</f>
+        <f t="shared" si="2"/>
         <v>0.99928160919540232</v>
       </c>
       <c r="G3">
-        <f>B3/(B3+C3)</f>
+        <f t="shared" si="3"/>
         <v>0.31111608141355401</v>
       </c>
       <c r="H3">
-        <f>(2*F3*G3)/(F3+G3)</f>
+        <f t="shared" si="4"/>
         <v>0.4745011086474501</v>
       </c>
       <c r="I3">
-        <f>(B3+E3)/K3</f>
+        <f t="shared" si="5"/>
         <v>0.55985714285714283</v>
       </c>
       <c r="K3">
@@ -4126,7 +4394,7 @@
         <v>1392</v>
       </c>
       <c r="M3">
-        <f>K3-L3</f>
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
@@ -4141,27 +4409,27 @@
         <v>3067</v>
       </c>
       <c r="D4">
-        <f>L4-B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f>M4-C4</f>
+        <f t="shared" si="1"/>
         <v>2541</v>
       </c>
       <c r="F4">
-        <f>B4/(B4+D4)</f>
+        <f t="shared" si="2"/>
         <v>0.99928160919540232</v>
       </c>
       <c r="G4">
-        <f>B4/(B4+C4)</f>
+        <f t="shared" si="3"/>
         <v>0.31202332884701661</v>
       </c>
       <c r="H4">
-        <f>(2*F4*G4)/(F4+G4)</f>
+        <f t="shared" si="4"/>
         <v>0.47555555555555556</v>
       </c>
       <c r="I4">
-        <f>(B4+E4)/K4</f>
+        <f t="shared" si="5"/>
         <v>0.56171428571428572</v>
       </c>
       <c r="K4">
@@ -4171,7 +4439,7 @@
         <v>1392</v>
       </c>
       <c r="M4">
-        <f>K4-L4</f>
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
@@ -4186,27 +4454,27 @@
         <v>3051</v>
       </c>
       <c r="D5">
-        <f>L5-B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
-        <f>M5-C5</f>
+        <f t="shared" si="1"/>
         <v>2557</v>
       </c>
       <c r="F5">
-        <f>B5/(B5+D5)</f>
+        <f t="shared" si="2"/>
         <v>0.99928160919540232</v>
       </c>
       <c r="G5">
-        <f>B5/(B5+C5)</f>
+        <f t="shared" si="3"/>
         <v>0.31314723097703739</v>
       </c>
       <c r="H5">
-        <f>(2*F5*G5)/(F5+G5)</f>
+        <f t="shared" si="4"/>
         <v>0.4768597874528625</v>
       </c>
       <c r="I5">
-        <f>(B5+E5)/K5</f>
+        <f t="shared" si="5"/>
         <v>0.56399999999999995</v>
       </c>
       <c r="K5">
@@ -4216,7 +4484,7 @@
         <v>1392</v>
       </c>
       <c r="M5">
-        <f>K5-L5</f>
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
@@ -4231,27 +4499,27 @@
         <v>2796</v>
       </c>
       <c r="D6">
-        <f>L6-B6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>M6-C6</f>
+        <f t="shared" si="1"/>
         <v>2812</v>
       </c>
       <c r="F6">
-        <f>B6/(B6+D6)</f>
+        <f t="shared" si="2"/>
         <v>0.99928160919540232</v>
       </c>
       <c r="G6">
-        <f>B6/(B6+C6)</f>
+        <f t="shared" si="3"/>
         <v>0.33221877239073322</v>
       </c>
       <c r="H6">
-        <f>(2*F6*G6)/(F6+G6)</f>
+        <f t="shared" si="4"/>
         <v>0.49865567305968816</v>
       </c>
       <c r="I6">
-        <f>(B6+E6)/K6</f>
+        <f t="shared" si="5"/>
         <v>0.60042857142857142</v>
       </c>
       <c r="K6">
@@ -4261,43 +4529,43 @@
         <v>1392</v>
       </c>
       <c r="M6">
-        <f>K6-L6</f>
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B7">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="C7">
-        <v>1813</v>
+        <v>2271</v>
       </c>
       <c r="D7">
-        <f>L7-B7</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f>M7-C7</f>
-        <v>3795</v>
+        <f t="shared" ref="E7" si="7">M7-C7</f>
+        <v>3337</v>
       </c>
       <c r="F7">
-        <f>B7/(B7+D7)</f>
-        <v>0.99568965517241381</v>
+        <f t="shared" ref="F7" si="8">B7/(B7+D7)</f>
+        <v>0.99928160919540232</v>
       </c>
       <c r="G7">
-        <f>B7/(B7+C7)</f>
-        <v>0.43326039387308535</v>
+        <f t="shared" si="3"/>
+        <v>0.37984707809939922</v>
       </c>
       <c r="H7">
-        <f>(2*F7*G7)/(F7+G7)</f>
-        <v>0.60379002395992154</v>
+        <f t="shared" ref="H7" si="9">(2*F7*G7)/(F7+G7)</f>
+        <v>0.55045508508112384</v>
       </c>
       <c r="I7">
-        <f>(B7+E7)/K7</f>
-        <v>0.7401428571428571</v>
+        <f t="shared" ref="I7" si="10">(B7+E7)/K7</f>
+        <v>0.67542857142857138</v>
       </c>
       <c r="K7">
         <v>7000</v>
@@ -4306,88 +4574,88 @@
         <v>1392</v>
       </c>
       <c r="M7">
-        <f>K7-L7</f>
+        <f t="shared" ref="M7" si="11">K7-L7</f>
         <v>5608</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>300</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1379</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1180</v>
-      </c>
-      <c r="D8" s="2">
-        <f>L8-B8</f>
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <f>M8-C8</f>
-        <v>4428</v>
-      </c>
-      <c r="F8" s="2">
-        <f>B8/(B8+D8)</f>
-        <v>0.99066091954022983</v>
-      </c>
-      <c r="G8" s="2">
-        <f>B8/(B8+C8)</f>
-        <v>0.53888237592809696</v>
-      </c>
-      <c r="H8" s="2">
-        <f>(2*F8*G8)/(F8+G8)</f>
-        <v>0.69805112629714006</v>
-      </c>
-      <c r="I8" s="2">
-        <f>(B8+E8)/K8</f>
-        <v>0.82957142857142863</v>
-      </c>
-      <c r="K8" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>250</v>
+      </c>
+      <c r="B8">
+        <v>1386</v>
+      </c>
+      <c r="C8">
+        <v>1813</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3795</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.99568965517241381</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.43326039387308535</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>0.60379002395992154</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>0.7401428571428571</v>
+      </c>
+      <c r="K8">
         <v>7000</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>1392</v>
       </c>
-      <c r="M8" s="2">
-        <f>K8-L8</f>
+      <c r="M8">
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="B9">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="C9">
-        <v>761</v>
+        <v>1467</v>
       </c>
       <c r="D9">
-        <f>L9-B9</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="E9">
-        <f>M9-C9</f>
-        <v>4847</v>
+        <f t="shared" si="1"/>
+        <v>4141</v>
       </c>
       <c r="F9">
-        <f>B9/(B9+D9)</f>
-        <v>0.98347701149425293</v>
+        <f t="shared" si="2"/>
+        <v>0.99137931034482762</v>
       </c>
       <c r="G9">
-        <f>B9/(B9+C9)</f>
-        <v>0.64272300469483568</v>
+        <f t="shared" si="3"/>
+        <v>0.48472075869336145</v>
       </c>
       <c r="H9">
-        <f>(2*F9*G9)/(F9+G9)</f>
-        <v>0.77739920499716064</v>
+        <f t="shared" si="4"/>
+        <v>0.65109695682944091</v>
       </c>
       <c r="I9">
-        <f>(B9+E9)/K9</f>
-        <v>0.88800000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.7887142857142857</v>
       </c>
       <c r="K9">
         <v>7000</v>
@@ -4396,88 +4664,88 @@
         <v>1392</v>
       </c>
       <c r="M9">
-        <f>K9-L9</f>
+        <f t="shared" ref="M9" si="12">K9-L9</f>
         <v>5608</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>400</v>
-      </c>
-      <c r="B10">
-        <v>1328</v>
-      </c>
-      <c r="C10">
-        <v>468</v>
-      </c>
-      <c r="D10">
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1379</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1180</v>
+      </c>
+      <c r="D10" s="2">
         <f>L10-B10</f>
-        <v>64</v>
-      </c>
-      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
         <f>M10-C10</f>
-        <v>5140</v>
-      </c>
-      <c r="F10">
+        <v>4428</v>
+      </c>
+      <c r="F10" s="2">
         <f>B10/(B10+D10)</f>
-        <v>0.95402298850574707</v>
-      </c>
-      <c r="G10">
+        <v>0.99066091954022983</v>
+      </c>
+      <c r="G10" s="2">
         <f>B10/(B10+C10)</f>
-        <v>0.73942093541202669</v>
-      </c>
-      <c r="H10">
+        <v>0.53888237592809696</v>
+      </c>
+      <c r="H10" s="2">
         <f>(2*F10*G10)/(F10+G10)</f>
-        <v>0.83312421580928486</v>
-      </c>
-      <c r="I10">
+        <v>0.69805112629714006</v>
+      </c>
+      <c r="I10" s="2">
         <f>(B10+E10)/K10</f>
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="K10">
+        <v>0.82957142857142863</v>
+      </c>
+      <c r="K10" s="2">
         <v>7000</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>1392</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f>K10-L10</f>
         <v>5608</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="B11">
-        <v>1285</v>
+        <v>1376</v>
       </c>
       <c r="C11">
-        <v>316</v>
+        <v>933</v>
       </c>
       <c r="D11">
         <f>L11-B11</f>
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <f>M11-C11</f>
-        <v>5292</v>
+        <v>4675</v>
       </c>
       <c r="F11">
         <f>B11/(B11+D11)</f>
-        <v>0.92313218390804597</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="G11">
         <f>B11/(B11+C11)</f>
-        <v>0.80262336039975013</v>
+        <v>0.5959289735816371</v>
       </c>
       <c r="H11">
         <f>(2*F11*G11)/(F11+G11)</f>
-        <v>0.8586702305379218</v>
+        <v>0.74358281545528238</v>
       </c>
       <c r="I11">
         <f>(B11+E11)/K11</f>
-        <v>0.93957142857142861</v>
+        <v>0.86442857142857144</v>
       </c>
       <c r="K11">
         <v>7000</v>
@@ -4486,43 +4754,43 @@
         <v>1392</v>
       </c>
       <c r="M11">
-        <f>K11-L11</f>
+        <f t="shared" ref="M11" si="13">K11-L11</f>
         <v>5608</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B12">
-        <v>1230</v>
+        <v>1369</v>
       </c>
       <c r="C12">
-        <v>215</v>
+        <v>761</v>
       </c>
       <c r="D12">
-        <f>L12-B12</f>
-        <v>162</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="E12">
-        <f>M12-C12</f>
-        <v>5393</v>
+        <f t="shared" si="1"/>
+        <v>4847</v>
       </c>
       <c r="F12">
-        <f>B12/(B12+D12)</f>
-        <v>0.88362068965517238</v>
+        <f t="shared" si="2"/>
+        <v>0.98347701149425293</v>
       </c>
       <c r="G12">
-        <f>B12/(B12+C12)</f>
-        <v>0.85121107266435991</v>
+        <f t="shared" si="3"/>
+        <v>0.64272300469483568</v>
       </c>
       <c r="H12">
-        <f>(2*F12*G12)/(F12+G12)</f>
-        <v>0.86711314769122316</v>
+        <f t="shared" si="4"/>
+        <v>0.77739920499716064</v>
       </c>
       <c r="I12">
-        <f>(B12+E12)/K12</f>
-        <v>0.94614285714285717</v>
+        <f t="shared" si="5"/>
+        <v>0.88800000000000001</v>
       </c>
       <c r="K12">
         <v>7000</v>
@@ -4531,159 +4799,429 @@
         <v>1392</v>
       </c>
       <c r="M12">
-        <f>K12-L12</f>
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>510</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1217</v>
-      </c>
-      <c r="C13" s="1">
-        <v>201</v>
-      </c>
-      <c r="D13" s="1">
-        <f>L13-B13</f>
-        <v>175</v>
-      </c>
-      <c r="E13" s="1">
-        <f>M13-C13</f>
-        <v>5407</v>
-      </c>
-      <c r="F13" s="1">
-        <f>B13/(B13+D13)</f>
-        <v>0.87428160919540232</v>
-      </c>
-      <c r="G13" s="1">
-        <f>B13/(B13+C13)</f>
-        <v>0.85825105782792666</v>
-      </c>
-      <c r="H13" s="1">
-        <f>(2*F13*G13)/(F13+G13)</f>
-        <v>0.86619217081850541</v>
-      </c>
-      <c r="I13" s="1">
-        <f>(B13+E13)/K13</f>
-        <v>0.94628571428571429</v>
-      </c>
-      <c r="K13" s="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>375</v>
+      </c>
+      <c r="B13">
+        <v>1358</v>
+      </c>
+      <c r="C13">
+        <v>601</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>5007</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.97557471264367812</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.69321082184788152</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0.81050432706654729</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>0.90928571428571425</v>
+      </c>
+      <c r="K13">
         <v>7000</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>1392</v>
       </c>
-      <c r="M13" s="1">
-        <f>K13-L13</f>
+      <c r="M13">
+        <f t="shared" ref="M13" si="14">K13-L13</f>
         <v>5608</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1193</v>
-      </c>
-      <c r="C14" s="1">
-        <v>176</v>
-      </c>
-      <c r="D14" s="1">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>1328</v>
+      </c>
+      <c r="C14">
+        <v>468</v>
+      </c>
+      <c r="D14">
         <f>L14-B14</f>
-        <v>199</v>
-      </c>
-      <c r="E14" s="1">
+        <v>64</v>
+      </c>
+      <c r="E14">
         <f>M14-C14</f>
-        <v>5432</v>
-      </c>
-      <c r="F14" s="1">
+        <v>5140</v>
+      </c>
+      <c r="F14">
         <f>B14/(B14+D14)</f>
-        <v>0.85704022988505746</v>
-      </c>
-      <c r="G14" s="1">
+        <v>0.95402298850574707</v>
+      </c>
+      <c r="G14">
         <f>B14/(B14+C14)</f>
-        <v>0.87143900657414175</v>
-      </c>
-      <c r="H14" s="1">
+        <v>0.73942093541202669</v>
+      </c>
+      <c r="H14">
         <f>(2*F14*G14)/(F14+G14)</f>
-        <v>0.86417964505613909</v>
-      </c>
-      <c r="I14" s="1">
+        <v>0.83312421580928486</v>
+      </c>
+      <c r="I14">
         <f>(B14+E14)/K14</f>
-        <v>0.9464285714285714</v>
-      </c>
-      <c r="K14" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K14">
         <v>7000</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>1392</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <f>K14-L14</f>
         <v>5608</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>425</v>
+      </c>
+      <c r="B15">
+        <v>1308</v>
+      </c>
+      <c r="C15">
+        <v>379</v>
+      </c>
+      <c r="D15">
+        <f>L15-B15</f>
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <f>M15-C15</f>
+        <v>5229</v>
+      </c>
+      <c r="F15">
+        <f>B15/(B15+D15)</f>
+        <v>0.93965517241379315</v>
+      </c>
+      <c r="G15">
+        <f>B15/(B15+C15)</f>
+        <v>0.77534084173088325</v>
+      </c>
+      <c r="H15">
+        <f>(2*F15*G15)/(F15+G15)</f>
+        <v>0.84962650211107504</v>
+      </c>
+      <c r="I15">
+        <f>(B15+E15)/K15</f>
+        <v>0.93385714285714283</v>
+      </c>
+      <c r="K15">
+        <v>7000</v>
+      </c>
+      <c r="L15">
+        <v>1392</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="15">K15-L15</f>
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>450</v>
+      </c>
+      <c r="B16">
+        <v>1285</v>
+      </c>
+      <c r="C16">
+        <v>316</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>5292</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.92313218390804597</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.80262336039975013</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.8586702305379218</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>0.93957142857142861</v>
+      </c>
+      <c r="K16">
+        <v>7000</v>
+      </c>
+      <c r="L16">
+        <v>1392</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>475</v>
+      </c>
+      <c r="B17">
+        <v>1258</v>
+      </c>
+      <c r="C17">
+        <v>254</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>5354</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.90373563218390807</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.83201058201058198</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.86639118457300279</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0.94457142857142862</v>
+      </c>
+      <c r="K17">
+        <v>7000</v>
+      </c>
+      <c r="L17">
+        <v>1392</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="16">K17-L17</f>
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>500</v>
+      </c>
+      <c r="B18">
+        <v>1230</v>
+      </c>
+      <c r="C18">
+        <v>215</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>5393</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.88362068965517238</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.85121107266435991</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0.86711314769122316</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0.94614285714285717</v>
+      </c>
+      <c r="K18">
+        <v>7000</v>
+      </c>
+      <c r="L18">
+        <v>1392</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>510</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1217</v>
+      </c>
+      <c r="C19" s="1">
+        <v>201</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>5407</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87428160919540232</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.85825105782792666</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86619217081850541</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94628571428571429</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1392</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="6"/>
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>525</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1193</v>
+      </c>
+      <c r="C20" s="1">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>5432</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85704022988505746</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87143900657414175</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86417964505613909</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1392</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="6"/>
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>550</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B21" s="1">
         <v>1165</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C21" s="1">
         <v>135</v>
       </c>
-      <c r="D15" s="1">
-        <f>L15-B15</f>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="E15" s="1">
-        <f>M15-C15</f>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
         <v>5473</v>
       </c>
-      <c r="F15" s="1">
-        <f>B15/(B15+D15)</f>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
         <v>0.83692528735632188</v>
       </c>
-      <c r="G15" s="1">
-        <f>B15/(B15+C15)</f>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
         <v>0.89615384615384619</v>
       </c>
-      <c r="H15" s="1">
-        <f>(2*F15*G15)/(F15+G15)</f>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
         <v>0.86552748885586928</v>
       </c>
-      <c r="I15" s="1">
-        <f>(B15+E15)/K15</f>
+      <c r="I21" s="1">
+        <f t="shared" si="5"/>
         <v>0.94828571428571429</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K21" s="1">
         <v>7000</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L21" s="1">
         <v>1392</v>
       </c>
-      <c r="M15" s="1">
-        <f>K15-L15</f>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
         <v>5608</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585C9A51-E176-4BB6-9FF8-0FEC88A48E16}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4711,16 +5249,16 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -4743,11 +5281,11 @@
         <v>1984</v>
       </c>
       <c r="D2">
-        <f>L2-B2</f>
+        <f t="shared" ref="D2:D21" si="0">L2-B2</f>
         <v>2</v>
       </c>
       <c r="E2">
-        <f>M2-C2</f>
+        <f t="shared" ref="E2:E21" si="1">M2-C2</f>
         <v>1608</v>
       </c>
       <c r="F2">
@@ -4755,15 +5293,15 @@
         <v>0.99779735682819382</v>
       </c>
       <c r="G2">
-        <f>B2/(B2+C2)</f>
+        <f t="shared" ref="G2:G21" si="2">B2/(B2+C2)</f>
         <v>0.31349480968858129</v>
       </c>
       <c r="H2">
-        <f>(2*F2*G2)/(F2+G2)</f>
+        <f t="shared" ref="H2:H21" si="3">(2*F2*G2)/(F2+G2)</f>
         <v>0.4770932069510268</v>
       </c>
       <c r="I2">
-        <f>(B2+E2)/K2</f>
+        <f t="shared" ref="I2:I21" si="4">(B2+E2)/K2</f>
         <v>0.55866666666666664</v>
       </c>
       <c r="K2">
@@ -4773,7 +5311,7 @@
         <v>908</v>
       </c>
       <c r="M2">
-        <f>K2-L2</f>
+        <f t="shared" ref="M2:M21" si="5">K2-L2</f>
         <v>3592</v>
       </c>
     </row>
@@ -4788,27 +5326,27 @@
         <v>1971</v>
       </c>
       <c r="D3">
-        <f>L3-B3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E3">
-        <f>M3-C3</f>
+        <f t="shared" si="1"/>
         <v>1621</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="0">B3/(B3+D3)</f>
+        <f t="shared" ref="F3:F21" si="6">B3/(B3+D3)</f>
         <v>0.99779735682819382</v>
       </c>
       <c r="G3">
-        <f>B3/(B3+C3)</f>
+        <f t="shared" si="2"/>
         <v>0.31491136600625652</v>
       </c>
       <c r="H3">
-        <f>(2*F3*G3)/(F3+G3)</f>
+        <f t="shared" si="3"/>
         <v>0.47873183619550863</v>
       </c>
       <c r="I3">
-        <f>(B3+E3)/K3</f>
+        <f t="shared" si="4"/>
         <v>0.56155555555555559</v>
       </c>
       <c r="K3">
@@ -4818,7 +5356,7 @@
         <v>908</v>
       </c>
       <c r="M3">
-        <f>K3-L3</f>
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
@@ -4833,27 +5371,27 @@
         <v>1961</v>
       </c>
       <c r="D4">
-        <f>L4-B4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4">
-        <f>M4-C4</f>
+        <f t="shared" si="1"/>
         <v>1631</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.99779735682819382</v>
       </c>
       <c r="G4">
-        <f>B4/(B4+C4)</f>
+        <f t="shared" si="2"/>
         <v>0.31600976630624344</v>
       </c>
       <c r="H4">
-        <f>(2*F4*G4)/(F4+G4)</f>
+        <f t="shared" si="3"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="I4">
-        <f>(B4+E4)/K4</f>
+        <f t="shared" si="4"/>
         <v>0.56377777777777782</v>
       </c>
       <c r="K4">
@@ -4863,7 +5401,7 @@
         <v>908</v>
       </c>
       <c r="M4">
-        <f>K4-L4</f>
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
@@ -4878,27 +5416,27 @@
         <v>1947</v>
       </c>
       <c r="D5">
-        <f>L5-B5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5">
-        <f>M5-C5</f>
+        <f t="shared" si="1"/>
         <v>1645</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.99779735682819382</v>
       </c>
       <c r="G5">
-        <f>B5/(B5+C5)</f>
+        <f t="shared" si="2"/>
         <v>0.31756046267087279</v>
       </c>
       <c r="H5">
-        <f>(2*F5*G5)/(F5+G5)</f>
+        <f t="shared" si="3"/>
         <v>0.48178675884073391</v>
       </c>
       <c r="I5">
-        <f>(B5+E5)/K5</f>
+        <f t="shared" si="4"/>
         <v>0.56688888888888889</v>
       </c>
       <c r="K5">
@@ -4908,7 +5446,7 @@
         <v>908</v>
       </c>
       <c r="M5">
-        <f>K5-L5</f>
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
@@ -4923,27 +5461,27 @@
         <v>1803</v>
       </c>
       <c r="D6">
-        <f>L6-B6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E6">
-        <f>M6-C6</f>
+        <f t="shared" si="1"/>
         <v>1789</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.99779735682819382</v>
       </c>
       <c r="G6">
-        <f>B6/(B6+C6)</f>
+        <f t="shared" si="2"/>
         <v>0.33444075304540422</v>
       </c>
       <c r="H6">
-        <f>(2*F6*G6)/(F6+G6)</f>
+        <f t="shared" si="3"/>
         <v>0.5009676527508985</v>
       </c>
       <c r="I6">
-        <f>(B6+E6)/K6</f>
+        <f t="shared" si="4"/>
         <v>0.59888888888888892</v>
       </c>
       <c r="K6">
@@ -4953,43 +5491,43 @@
         <v>908</v>
       </c>
       <c r="M6">
-        <f>K6-L6</f>
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B7">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>1466</v>
       </c>
       <c r="D7">
-        <f>L7-B7</f>
-        <v>6</v>
+        <f t="shared" ref="D7" si="7">L7-B7</f>
+        <v>4</v>
       </c>
       <c r="E7">
-        <f>M7-C7</f>
-        <v>2392</v>
+        <f t="shared" ref="E7" si="8">M7-C7</f>
+        <v>2126</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.99339207048458145</v>
+        <f t="shared" ref="F7" si="9">B7/(B7+D7)</f>
+        <v>0.99559471365638763</v>
       </c>
       <c r="G7">
-        <f>B7/(B7+C7)</f>
-        <v>0.42911512844909611</v>
+        <f t="shared" si="2"/>
+        <v>0.38143459915611816</v>
       </c>
       <c r="H7">
-        <f>(2*F7*G7)/(F7+G7)</f>
-        <v>0.59933554817275758</v>
+        <f t="shared" ref="H7" si="10">(2*F7*G7)/(F7+G7)</f>
+        <v>0.55155582672361203</v>
       </c>
       <c r="I7">
-        <f>(B7+E7)/K7</f>
-        <v>0.73199999999999998</v>
+        <f t="shared" ref="I7" si="11">(B7+E7)/K7</f>
+        <v>0.67333333333333334</v>
       </c>
       <c r="K7">
         <v>4500</v>
@@ -4998,88 +5536,88 @@
         <v>908</v>
       </c>
       <c r="M7">
-        <f>K7-L7</f>
+        <f t="shared" ref="M7" si="12">K7-L7</f>
         <v>3592</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>300</v>
-      </c>
-      <c r="B8" s="2">
-        <v>900</v>
-      </c>
-      <c r="C8" s="2">
-        <v>750</v>
-      </c>
-      <c r="D8" s="2">
-        <f>L8-B8</f>
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <f>M8-C8</f>
-        <v>2842</v>
-      </c>
-      <c r="F8" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>250</v>
+      </c>
+      <c r="B8">
+        <v>902</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.99118942731277537</v>
-      </c>
-      <c r="G8" s="2">
-        <f>B8/(B8+C8)</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="H8" s="2">
-        <f>(2*F8*G8)/(F8+G8)</f>
-        <v>0.70367474589523071</v>
-      </c>
-      <c r="I8" s="2">
-        <f>(B8+E8)/K8</f>
-        <v>0.8315555555555556</v>
-      </c>
-      <c r="K8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2392</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>0.99339207048458145</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.42911512844909611</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.59933554817275758</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K8">
         <v>4500</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>908</v>
       </c>
-      <c r="M8" s="2">
-        <f>K8-L8</f>
+      <c r="M8">
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="B9">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C9">
-        <v>467</v>
+        <v>972</v>
       </c>
       <c r="D9">
-        <f>L9-B9</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E9">
-        <f>M9-C9</f>
-        <v>3125</v>
+        <f t="shared" si="1"/>
+        <v>2620</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.98348017621145378</v>
+        <f t="shared" si="6"/>
+        <v>0.99229074889867841</v>
       </c>
       <c r="G9">
-        <f>B9/(B9+C9)</f>
-        <v>0.65661764705882353</v>
+        <f t="shared" si="2"/>
+        <v>0.48104644954618259</v>
       </c>
       <c r="H9">
-        <f>(2*F9*G9)/(F9+G9)</f>
-        <v>0.78747795414462096</v>
+        <f t="shared" si="3"/>
+        <v>0.64796835670622088</v>
       </c>
       <c r="I9">
-        <f>(B9+E9)/K9</f>
-        <v>0.89288888888888884</v>
+        <f t="shared" si="4"/>
+        <v>0.7824444444444445</v>
       </c>
       <c r="K9">
         <v>4500</v>
@@ -5088,88 +5626,88 @@
         <v>908</v>
       </c>
       <c r="M9">
-        <f>K9-L9</f>
+        <f t="shared" ref="M9:M11" si="13">K9-L9</f>
         <v>3592</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>400</v>
-      </c>
-      <c r="B10">
-        <v>872</v>
-      </c>
-      <c r="C10">
-        <v>287</v>
-      </c>
-      <c r="D10">
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2">
+        <v>900</v>
+      </c>
+      <c r="C10" s="2">
+        <v>750</v>
+      </c>
+      <c r="D10" s="2">
         <f>L10-B10</f>
-        <v>36</v>
-      </c>
-      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
         <f>M10-C10</f>
-        <v>3305</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.96035242290748901</v>
-      </c>
-      <c r="G10">
+        <v>2842</v>
+      </c>
+      <c r="F10" s="2">
+        <f>B10/(B10+D10)</f>
+        <v>0.99118942731277537</v>
+      </c>
+      <c r="G10" s="2">
         <f>B10/(B10+C10)</f>
-        <v>0.75237273511647973</v>
-      </c>
-      <c r="H10">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H10" s="2">
         <f>(2*F10*G10)/(F10+G10)</f>
-        <v>0.8437348814707305</v>
-      </c>
-      <c r="I10">
+        <v>0.70367474589523071</v>
+      </c>
+      <c r="I10" s="2">
         <f>(B10+E10)/K10</f>
-        <v>0.92822222222222217</v>
-      </c>
-      <c r="K10">
+        <v>0.8315555555555556</v>
+      </c>
+      <c r="K10" s="2">
         <v>4500</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>908</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f>K10-L10</f>
         <v>3592</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="B11">
-        <v>841</v>
+        <v>896</v>
       </c>
       <c r="C11">
-        <v>189</v>
+        <v>592</v>
       </c>
       <c r="D11">
         <f>L11-B11</f>
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f>M11-C11</f>
-        <v>3403</v>
+        <v>3000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.92621145374449343</v>
+        <f>B11/(B11+D11)</f>
+        <v>0.986784140969163</v>
       </c>
       <c r="G11">
         <f>B11/(B11+C11)</f>
-        <v>0.81650485436893205</v>
+        <v>0.60215053763440862</v>
       </c>
       <c r="H11">
         <f>(2*F11*G11)/(F11+G11)</f>
-        <v>0.86790505675954599</v>
+        <v>0.74791318864774625</v>
       </c>
       <c r="I11">
         <f>(B11+E11)/K11</f>
-        <v>0.94311111111111112</v>
+        <v>0.86577777777777776</v>
       </c>
       <c r="K11">
         <v>4500</v>
@@ -5178,43 +5716,43 @@
         <v>908</v>
       </c>
       <c r="M11">
-        <f>K11-L11</f>
+        <f t="shared" si="13"/>
         <v>3592</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B12">
-        <v>794</v>
+        <v>893</v>
       </c>
       <c r="C12">
-        <v>135</v>
+        <v>467</v>
       </c>
       <c r="D12">
-        <f>L12-B12</f>
-        <v>114</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E12">
-        <f>M12-C12</f>
-        <v>3457</v>
+        <f t="shared" si="1"/>
+        <v>3125</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.87444933920704848</v>
+        <f t="shared" si="6"/>
+        <v>0.98348017621145378</v>
       </c>
       <c r="G12">
-        <f>B12/(B12+C12)</f>
-        <v>0.85468245425188372</v>
+        <f t="shared" si="2"/>
+        <v>0.65661764705882353</v>
       </c>
       <c r="H12">
-        <f>(2*F12*G12)/(F12+G12)</f>
-        <v>0.86445291235710398</v>
+        <f t="shared" si="3"/>
+        <v>0.78747795414462096</v>
       </c>
       <c r="I12">
-        <f>(B12+E12)/K12</f>
-        <v>0.94466666666666665</v>
+        <f t="shared" si="4"/>
+        <v>0.89288888888888884</v>
       </c>
       <c r="K12">
         <v>4500</v>
@@ -5223,43 +5761,43 @@
         <v>908</v>
       </c>
       <c r="M12">
-        <f>K12-L12</f>
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>510</v>
+        <v>375</v>
       </c>
       <c r="B13">
-        <v>785</v>
+        <v>885</v>
       </c>
       <c r="C13">
-        <v>123</v>
+        <v>360</v>
       </c>
       <c r="D13">
-        <f>L13-B13</f>
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="E13">
-        <f>M13-C13</f>
-        <v>3469</v>
+        <f t="shared" si="1"/>
+        <v>3232</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.86453744493392071</v>
+        <f t="shared" si="6"/>
+        <v>0.97466960352422904</v>
       </c>
       <c r="G13">
-        <f>B13/(B13+C13)</f>
-        <v>0.86453744493392071</v>
+        <f t="shared" si="2"/>
+        <v>0.71084337349397586</v>
       </c>
       <c r="H13">
-        <f>(2*F13*G13)/(F13+G13)</f>
-        <v>0.86453744493392071</v>
+        <f t="shared" si="3"/>
+        <v>0.82210868555503946</v>
       </c>
       <c r="I13">
-        <f>(B13+E13)/K13</f>
-        <v>0.94533333333333336</v>
+        <f t="shared" si="4"/>
+        <v>0.91488888888888886</v>
       </c>
       <c r="K13">
         <v>4500</v>
@@ -5268,43 +5806,43 @@
         <v>908</v>
       </c>
       <c r="M13">
-        <f>K13-L13</f>
+        <f t="shared" ref="M13" si="14">K13-L13</f>
         <v>3592</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="B14">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c r="C14">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="D14">
         <f>L14-B14</f>
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <f>M14-C14</f>
-        <v>3482</v>
+        <v>3305</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.8458149779735683</v>
+        <f>B14/(B14+D14)</f>
+        <v>0.96035242290748901</v>
       </c>
       <c r="G14">
         <f>B14/(B14+C14)</f>
-        <v>0.87471526195899774</v>
+        <v>0.75237273511647973</v>
       </c>
       <c r="H14">
         <f>(2*F14*G14)/(F14+G14)</f>
-        <v>0.86002239641657341</v>
+        <v>0.8437348814707305</v>
       </c>
       <c r="I14">
         <f>(B14+E14)/K14</f>
-        <v>0.94444444444444442</v>
+        <v>0.92822222222222217</v>
       </c>
       <c r="K14">
         <v>4500</v>
@@ -5319,37 +5857,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="B15">
-        <v>751</v>
+        <v>858</v>
       </c>
       <c r="C15">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="D15">
         <f>L15-B15</f>
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <f>M15-C15</f>
-        <v>3510</v>
+        <v>3360</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.8270925110132159</v>
+        <f>B15/(B15+D15)</f>
+        <v>0.94493392070484583</v>
       </c>
       <c r="G15">
         <f>B15/(B15+C15)</f>
-        <v>0.90156062424969985</v>
+        <v>0.78715596330275228</v>
       </c>
       <c r="H15">
         <f>(2*F15*G15)/(F15+G15)</f>
-        <v>0.86272257323377377</v>
+        <v>0.85885885885885893</v>
       </c>
       <c r="I15">
         <f>(B15+E15)/K15</f>
-        <v>0.94688888888888889</v>
+        <v>0.93733333333333335</v>
       </c>
       <c r="K15">
         <v>4500</v>
@@ -5358,13 +5896,283 @@
         <v>908</v>
       </c>
       <c r="M15">
-        <f>K15-L15</f>
+        <f t="shared" ref="M15" si="15">K15-L15</f>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>450</v>
+      </c>
+      <c r="B16">
+        <v>841</v>
+      </c>
+      <c r="C16">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3403</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>0.92621145374449343</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.81650485436893205</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0.86790505675954599</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.94311111111111112</v>
+      </c>
+      <c r="K16">
+        <v>4500</v>
+      </c>
+      <c r="L16">
+        <v>908</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>475</v>
+      </c>
+      <c r="B17">
+        <v>816</v>
+      </c>
+      <c r="C17">
+        <v>155</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3437</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>0.89867841409691629</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.84037075180226573</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0.86854709952102183</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.94511111111111112</v>
+      </c>
+      <c r="K17">
+        <v>4500</v>
+      </c>
+      <c r="L17">
+        <v>908</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="16">K17-L17</f>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>500</v>
+      </c>
+      <c r="B18">
+        <v>794</v>
+      </c>
+      <c r="C18">
+        <v>135</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3457</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>0.87444933920704848</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.85468245425188372</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0.86445291235710398</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.94466666666666665</v>
+      </c>
+      <c r="K18">
+        <v>4500</v>
+      </c>
+      <c r="L18">
+        <v>908</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>510</v>
+      </c>
+      <c r="B19">
+        <v>785</v>
+      </c>
+      <c r="C19">
+        <v>123</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3469</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>0.86453744493392071</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.86453744493392071</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.86453744493392071</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.94533333333333336</v>
+      </c>
+      <c r="K19">
+        <v>4500</v>
+      </c>
+      <c r="L19">
+        <v>908</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>525</v>
+      </c>
+      <c r="B20">
+        <v>768</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3482</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>0.8458149779735683</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.87471526195899774</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0.86002239641657341</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K20">
+        <v>4500</v>
+      </c>
+      <c r="L20">
+        <v>908</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>550</v>
+      </c>
+      <c r="B21">
+        <v>751</v>
+      </c>
+      <c r="C21">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>3510</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>0.8270925110132159</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.90156062424969985</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.86272257323377377</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.94688888888888889</v>
+      </c>
+      <c r="K21">
+        <v>4500</v>
+      </c>
+      <c r="L21">
+        <v>908</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
         <v>3592</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>